--- a/olympics_all_years.xlsx
+++ b/olympics_all_years.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Даша\olympic-kz-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C54AE82-35D9-4D05-9EF2-9E5CB8062DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0A3D70-29C7-4D84-AF98-BD1EFEF482EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="olympics_all_years" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,6 @@
     <definedName name="ExternalData_1" localSheetId="1" hidden="1">federations!$A$1:$I$118</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,30 +37,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7192" uniqueCount="1763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7309" uniqueCount="1846">
   <si>
     <t>Год</t>
   </si>
@@ -4738,9 +4715,6 @@
   </si>
   <si>
     <t>+43 - 676 - 84 14 98</t>
-  </si>
-  <si>
-    <t>kzbiathlonunion@gmail.com, olle.dahlin@ibu.at, biathlon@ibu.at</t>
   </si>
   <si>
     <t>Зальцбург, Австрия</t>
@@ -5353,7 +5327,275 @@
     <t>(377) 92 05 70 68</t>
   </si>
   <si>
-    <t>44 (0)20 3940 4888</t>
+    <t>Международные федерации</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bwf@bwfbadminton.org
+ </t>
+  </si>
+  <si>
+    <t>Unit 17.05 Level 17, Amoda Building, 22 Jalan
+ Imbi, 55100 Kuala Lumpur, Malaysia</t>
+  </si>
+  <si>
+    <t>Куала-Лумпур, Малайзия.</t>
+  </si>
+  <si>
+    <t>Peregrinstraße 14, A-5020 Salzburg, Austria</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> olle.dahlin@ibu.at,
+ biathlon@ibu.at</t>
+  </si>
+  <si>
+    <t>https://www.iba.sport/</t>
+  </si>
+  <si>
+    <t>Умар Назарович Кремлёв</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> info@iba.sport</t>
+  </si>
+  <si>
+    <t>Maison du Sport International, 
+Avenue de Rhodanie 54, 1007 Lausanne, 
+Switzerland.​</t>
+  </si>
+  <si>
+    <t>Lausanne, 
+Switzerland.​</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sportsdep@fina.org</t>
+  </si>
+  <si>
+    <t>Maison du Sport International, Av de Rhodanie
+ 54 Lausanne, Switzerland</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> info@fisa.org</t>
+  </si>
+  <si>
+    <t>Maison du Sport International, Av. de Rhodanie
+ 54, 1007 Lausanne, Switzerland</t>
+  </si>
+  <si>
+    <t>+36 1 302 7270</t>
+  </si>
+  <si>
+    <t>+41 21 321 27 77</t>
+  </si>
+  <si>
+    <t>+353 1 240 92 00</t>
+  </si>
+  <si>
+    <t>353 1 240 92 00</t>
+  </si>
+  <si>
+    <t>Берхтесгаден, Германия</t>
+  </si>
+  <si>
+    <t>Берик Мажитович Имашев</t>
+  </si>
+  <si>
+    <t>https://www.worldskate.org/</t>
+  </si>
+  <si>
+    <t>+41 21 601 18 77</t>
+  </si>
+  <si>
+    <t>Av. De Rhodanie, 54 1007 Lausanne, 
+Switzerland</t>
+  </si>
+  <si>
+    <t>https://www.uipmworld.org/</t>
+  </si>
+  <si>
+    <t>+39 0111 385 3995</t>
+  </si>
+  <si>
+    <t>Via della Chiesa 3, 10123 Torino, Italy</t>
+  </si>
+  <si>
+    <t>Турин, италия</t>
+  </si>
+  <si>
+    <t>https://www.ifsc-climbing.org/</t>
+  </si>
+  <si>
+    <t>Шон Тай</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+41 21 614 30 50 </t>
+  </si>
+  <si>
+    <t>https://www.worlddancesport.org/</t>
+  </si>
+  <si>
+    <t>https://www.worldarchery.sport/</t>
+  </si>
+  <si>
+    <t>Угур Эрденер</t>
+  </si>
+  <si>
+    <t>https://www.issf-sports.org/</t>
+  </si>
+  <si>
+    <t>+ 49 89 544 355 0</t>
+  </si>
+  <si>
+    <t>Мюнхен, Германия</t>
+  </si>
+  <si>
+    <t>Чунгвон Чоу</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+82 2 566 2505 </t>
+  </si>
+  <si>
+    <t>https://m.worldtaekwondo.org/index.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Дэвид Хаггерти</t>
+  </si>
+  <si>
+    <t>https://www.itftennis.com/</t>
+  </si>
+  <si>
+    <t>https://www.triathlon.org/</t>
+  </si>
+  <si>
+    <t>https://iwf.sport/</t>
+  </si>
+  <si>
+    <t>https://fie.org/</t>
+  </si>
+  <si>
+    <t>https://www.fifa.com/</t>
+  </si>
+  <si>
+    <t>https://www.fih.ch/</t>
+  </si>
+  <si>
+    <t>https://www.iihf.com/</t>
+  </si>
+  <si>
+    <t>Марисоль Касадо</t>
+  </si>
+  <si>
+    <t>Мохаммед Джалуд</t>
+  </si>
+  <si>
+    <t>Эммануэль Кацаркис</t>
+  </si>
+  <si>
+    <t>Джованни Инфантино</t>
+  </si>
+  <si>
+    <t>Люк Тардиф</t>
+  </si>
+  <si>
+    <t>+41 21 320 3115</t>
+  </si>
+  <si>
+    <t>+41 21 612 6666</t>
+  </si>
+  <si>
+    <t>+41 43 222 7777</t>
+  </si>
+  <si>
+    <t>+41 21 641 0606</t>
+  </si>
+  <si>
+    <t>+41 44 562 2200</t>
+  </si>
+  <si>
+    <t>iwf@iwfnet.net</t>
+  </si>
+  <si>
+    <t>info@fie.ch</t>
+  </si>
+  <si>
+    <t>info@isu.ch</t>
+  </si>
+  <si>
+    <t>Avenue de Rhodanie 54, 1007 Lausanne, Switzerland</t>
+  </si>
+  <si>
+    <t>Chemin de Primerose 2, 1007 Lausanne,
+ Switzerland</t>
+  </si>
+  <si>
+    <t>Bank Lane, Roehampton, London, SW15 5XZ,
+ UK</t>
+  </si>
+  <si>
+    <t>Rue du Valentin 61, 1004 Lausanne, 
+Switzerland</t>
+  </si>
+  <si>
+    <t>info@worldskate.org</t>
+  </si>
+  <si>
+    <t>office@ifsc-climbing.org</t>
+  </si>
+  <si>
+    <t>info@archery.sport</t>
+  </si>
+  <si>
+    <t>Биатлон+F29E32A5:F26A5:HA5:G31</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ким Джэёль</t>
+  </si>
+  <si>
+    <t>Brandschenkestrasse 50, Postfach 1817,
+ 8027 Zurich, Switzerland</t>
+  </si>
+  <si>
+    <t>Таяб Икрам</t>
+  </si>
+  <si>
+    <t>Strasse 20, 8044 Zurich, Switzerland</t>
+  </si>
+  <si>
+    <t>Av. de Rhodanie 54</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Лозанна, Швейцария</t>
+  </si>
+  <si>
+    <t>+ 41 21 614 60 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ituhdg@triathlon.org</t>
+  </si>
+  <si>
+    <t>Maison du Sport International, 
+Av. de Rhodanie 54 , Lausanne CH -1007, 
+Switzerland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лучано Росси </t>
+  </si>
+  <si>
+    <t>SSF Headquarters, Widenmayerstrasse 16,
+ 80538 Munich, Germany</t>
+  </si>
+  <si>
+    <t>Марко Мария Сколарис</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Роб Сталл </t>
+  </si>
+  <si>
+    <t>Stade Louis II – Entrée C, 19 avenue des Castelans, MC-98000 Monaco</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Монте Карло, Монако​</t>
+  </si>
+  <si>
+    <t>Касымбек Женис Махмудович, Рыпаков Денис Сергеевич</t>
   </si>
 </sst>
 </file>
@@ -5387,7 +5629,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -5395,17 +5637,59 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -43930,8 +44214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:G70"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="73" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -44082,10 +44366,10 @@
         <v>1334</v>
       </c>
       <c r="C6" t="s">
+        <v>1730</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>1731</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>1732</v>
       </c>
       <c r="E6" t="s">
         <v>1336</v>
@@ -44111,16 +44395,16 @@
         <v>1341</v>
       </c>
       <c r="C7" t="s">
+        <v>1732</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>1733</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="G7" t="s">
         <v>1734</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" s="2" t="s">
         <v>1735</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>1736</v>
       </c>
       <c r="I7" t="s">
         <v>1342</v>
@@ -44201,7 +44485,7 @@
         <v>1365</v>
       </c>
       <c r="I10" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -44264,10 +44548,10 @@
         <v>1383</v>
       </c>
       <c r="C13" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>1737</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>1738</v>
       </c>
       <c r="E13" t="s">
         <v>1384</v>
@@ -44279,7 +44563,7 @@
         <v>1386</v>
       </c>
       <c r="I13" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -44290,7 +44574,7 @@
         <v>1367</v>
       </c>
       <c r="C14" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="D14" t="s">
         <v>1388</v>
@@ -44385,7 +44669,7 @@
         <v>1412</v>
       </c>
       <c r="C18" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="E18" t="s">
         <v>1413</v>
@@ -44436,6 +44720,9 @@
       <c r="C20" t="s">
         <v>1427</v>
       </c>
+      <c r="D20" t="s">
+        <v>1845</v>
+      </c>
       <c r="E20" t="s">
         <v>1428</v>
       </c>
@@ -44472,7 +44759,7 @@
         <v>1438</v>
       </c>
       <c r="H21" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="I21" t="s">
         <v>1439</v>
@@ -44509,7 +44796,7 @@
         <v>1367</v>
       </c>
       <c r="C23" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="E23" t="s">
         <v>1446</v>
@@ -44518,7 +44805,7 @@
         <v>1447</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="I23" t="s">
         <v>1448</v>
@@ -44532,7 +44819,7 @@
         <v>1450</v>
       </c>
       <c r="C24" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="E24" t="s">
         <v>1451</v>
@@ -44578,7 +44865,7 @@
         <v>1461</v>
       </c>
       <c r="C26" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="E26" t="s">
         <v>1462</v>
@@ -44587,7 +44874,7 @@
         <v>1463</v>
       </c>
       <c r="H26" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="I26" t="s">
         <v>1464</v>
@@ -44601,7 +44888,7 @@
         <v>1465</v>
       </c>
       <c r="C27" t="s">
-        <v>1335</v>
+        <v>1781</v>
       </c>
       <c r="D27" t="s">
         <v>1466</v>
@@ -44613,7 +44900,7 @@
         <v>1468</v>
       </c>
       <c r="I27" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -44647,7 +44934,7 @@
         <v>1477</v>
       </c>
       <c r="C29" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="E29" t="s">
         <v>1478</v>
@@ -44656,7 +44943,7 @@
         <v>1479</v>
       </c>
       <c r="I29" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -44667,7 +44954,7 @@
         <v>1480</v>
       </c>
       <c r="C30" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="D30" t="s">
         <v>1481</v>
@@ -44713,10 +45000,10 @@
         <v>1493</v>
       </c>
       <c r="C32" t="s">
+        <v>1746</v>
+      </c>
+      <c r="D32" t="s">
         <v>1747</v>
-      </c>
-      <c r="D32" t="s">
-        <v>1748</v>
       </c>
       <c r="E32" t="s">
         <v>1494</v>
@@ -44823,7 +45110,7 @@
         <v>1522</v>
       </c>
       <c r="H36" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="I36" t="s">
         <v>1523</v>
@@ -44846,10 +45133,10 @@
         <v>1527</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="I37" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -44860,7 +45147,7 @@
         <v>1530</v>
       </c>
       <c r="C38" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="E38" t="s">
         <v>1531</v>
@@ -44872,7 +45159,7 @@
         <v>1533</v>
       </c>
       <c r="I38" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -44883,7 +45170,7 @@
         <v>1367</v>
       </c>
       <c r="C39" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="D39" t="s">
         <v>1535</v>
@@ -44926,26 +45213,26 @@
         <v>1460</v>
       </c>
       <c r="B71" t="s">
+        <v>1654</v>
+      </c>
+      <c r="C71" t="s">
         <v>1655</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>1656</v>
-      </c>
-      <c r="D71" t="s">
-        <v>1657</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B92" t="s">
         <v>1659</v>
-      </c>
-      <c r="B92" t="s">
-        <v>1660</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
@@ -44953,22 +45240,22 @@
         <v>233</v>
       </c>
       <c r="B93" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C93" t="s">
         <v>1661</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
         <v>1662</v>
       </c>
-      <c r="D93" t="s">
+      <c r="E93" t="s">
         <v>1663</v>
       </c>
-      <c r="E93" t="s">
+      <c r="F93" t="s">
         <v>1664</v>
       </c>
-      <c r="F93" t="s">
+      <c r="G93" t="s">
         <v>1665</v>
-      </c>
-      <c r="G93" t="s">
-        <v>1666</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
@@ -44976,35 +45263,35 @@
         <v>1469</v>
       </c>
       <c r="B94" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C94" t="s">
         <v>1667</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
         <v>1668</v>
-      </c>
-      <c r="D94" t="s">
-        <v>1669</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B104" t="s">
         <v>1670</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" t="s">
         <v>1671</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D104" t="s">
         <v>1672</v>
       </c>
-      <c r="D104" t="s">
+      <c r="E104" t="s">
         <v>1673</v>
-      </c>
-      <c r="E104" t="s">
-        <v>1674</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
@@ -45012,22 +45299,22 @@
         <v>1476</v>
       </c>
       <c r="B105" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C105" t="s">
         <v>1675</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
         <v>1676</v>
       </c>
-      <c r="D105" t="s">
+      <c r="E105" t="s">
         <v>1677</v>
-      </c>
-      <c r="E105" t="s">
-        <v>1678</v>
       </c>
       <c r="F105" t="s">
         <v>1464</v>
       </c>
       <c r="G105" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
@@ -45035,27 +45322,27 @@
         <v>75</v>
       </c>
       <c r="B106" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C106" t="s">
         <v>1679</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
         <v>1680</v>
-      </c>
-      <c r="D106" t="s">
-        <v>1681</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B107" t="s">
         <v>1682</v>
-      </c>
-      <c r="B107" t="s">
-        <v>1683</v>
       </c>
       <c r="C107" t="s">
         <v>1464</v>
       </c>
       <c r="D107" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
@@ -45063,22 +45350,22 @@
         <v>1485</v>
       </c>
       <c r="B108" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C108" t="s">
         <v>1684</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
         <v>1685</v>
       </c>
-      <c r="D108" t="s">
+      <c r="E108" t="s">
         <v>1686</v>
       </c>
-      <c r="E108" t="s">
+      <c r="F108" t="s">
         <v>1687</v>
       </c>
-      <c r="F108" t="s">
+      <c r="G108" t="s">
         <v>1688</v>
-      </c>
-      <c r="G108" t="s">
-        <v>1689</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
@@ -45086,19 +45373,19 @@
         <v>1492</v>
       </c>
       <c r="B109" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C109" t="s">
         <v>1690</v>
       </c>
-      <c r="C109" t="s">
+      <c r="E109" t="s">
         <v>1691</v>
       </c>
-      <c r="E109" t="s">
+      <c r="F109" t="s">
         <v>1692</v>
       </c>
-      <c r="F109" t="s">
+      <c r="G109" t="s">
         <v>1693</v>
-      </c>
-      <c r="G109" t="s">
-        <v>1694</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
@@ -45106,22 +45393,22 @@
         <v>785</v>
       </c>
       <c r="B110" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C110" t="s">
         <v>1695</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
         <v>1696</v>
       </c>
-      <c r="D110" t="s">
+      <c r="E110" t="s">
         <v>1697</v>
       </c>
-      <c r="E110" t="s">
+      <c r="F110" t="s">
         <v>1698</v>
       </c>
-      <c r="F110" t="s">
-        <v>1699</v>
-      </c>
       <c r="G110" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
@@ -45129,19 +45416,19 @@
         <v>417</v>
       </c>
       <c r="B111" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C111" t="s">
         <v>1700</v>
       </c>
-      <c r="C111" t="s">
+      <c r="E111" t="s">
         <v>1701</v>
-      </c>
-      <c r="E111" t="s">
-        <v>1702</v>
       </c>
       <c r="F111" t="s">
         <v>1464</v>
       </c>
       <c r="G111" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
@@ -45149,21 +45436,21 @@
         <v>1510</v>
       </c>
       <c r="B112" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C112" t="s">
         <v>1704</v>
       </c>
-      <c r="C112" t="s">
+      <c r="D112" t="s">
         <v>1705</v>
-      </c>
-      <c r="D112" t="s">
-        <v>1706</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="B113" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
@@ -45171,22 +45458,22 @@
         <v>214</v>
       </c>
       <c r="B114" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C114" t="s">
         <v>1708</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
         <v>1709</v>
       </c>
-      <c r="D114" t="s">
+      <c r="E114" t="s">
         <v>1710</v>
-      </c>
-      <c r="E114" t="s">
-        <v>1711</v>
       </c>
       <c r="F114" t="s">
         <v>1509</v>
       </c>
       <c r="G114" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
@@ -45194,22 +45481,22 @@
         <v>313</v>
       </c>
       <c r="B115" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C115" t="s">
         <v>1712</v>
       </c>
-      <c r="C115" t="s">
+      <c r="D115" t="s">
+        <v>1621</v>
+      </c>
+      <c r="E115" t="s">
         <v>1713</v>
-      </c>
-      <c r="D115" t="s">
-        <v>1622</v>
-      </c>
-      <c r="E115" t="s">
-        <v>1714</v>
       </c>
       <c r="F115" t="s">
         <v>1464</v>
       </c>
       <c r="G115" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
@@ -45217,22 +45504,22 @@
         <v>1529</v>
       </c>
       <c r="B116" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C116" t="s">
         <v>1715</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D116" t="s">
         <v>1716</v>
       </c>
-      <c r="D116" t="s">
+      <c r="E116" t="s">
         <v>1717</v>
       </c>
-      <c r="E116" t="s">
+      <c r="F116" t="s">
         <v>1718</v>
       </c>
-      <c r="F116" t="s">
+      <c r="G116" t="s">
         <v>1719</v>
-      </c>
-      <c r="G116" t="s">
-        <v>1720</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
@@ -45240,22 +45527,22 @@
         <v>1534</v>
       </c>
       <c r="B117" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C117" t="s">
         <v>1721</v>
       </c>
-      <c r="C117" t="s">
+      <c r="D117" t="s">
         <v>1722</v>
       </c>
-      <c r="D117" t="s">
+      <c r="E117" t="s">
         <v>1723</v>
       </c>
-      <c r="E117" t="s">
+      <c r="F117" t="s">
         <v>1724</v>
       </c>
-      <c r="F117" t="s">
-        <v>1725</v>
-      </c>
       <c r="G117" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
@@ -45263,19 +45550,19 @@
         <v>1539</v>
       </c>
       <c r="B118" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C118" t="s">
         <v>1726</v>
       </c>
-      <c r="C118" t="s">
+      <c r="E118" t="s">
         <v>1727</v>
       </c>
-      <c r="E118" t="s">
+      <c r="F118" t="s">
         <v>1728</v>
       </c>
-      <c r="F118" t="s">
+      <c r="G118" t="s">
         <v>1729</v>
-      </c>
-      <c r="G118" t="s">
-        <v>1730</v>
       </c>
     </row>
   </sheetData>
@@ -45291,540 +45578,971 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G29"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="33.6640625" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="31.109375" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" customWidth="1"/>
+    <col min="6" max="6" width="37.109375" customWidth="1"/>
+    <col min="7" max="7" width="27.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="e" cm="1">
-        <f t="array" ref="A1">A1:G71Международные федерации</f>
-        <v>#NAME?</v>
-      </c>
+      <c r="A1" s="3" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>1305</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>1306</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>1307</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>1311</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>1312</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="3" t="s">
         <v>1313</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="3" t="s">
         <v>1546</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>1314</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>1547</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>1548</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>1549</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="E3" s="4" t="s">
+        <v>1762</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>1763</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>1320</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B4" s="3" t="s">
         <v>1550</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C4" s="3" t="s">
         <v>1551</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D4" s="3" t="s">
         <v>1552</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E4" s="3" t="s">
         <v>1553</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F4" s="3" t="s">
         <v>1554</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G4" s="3" t="s">
         <v>1555</v>
       </c>
     </row>
+    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>1829</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>1557</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>1558</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>1766</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>1765</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>1767</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>1768</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>1777</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>1769</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>1770</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>1771</v>
+      </c>
+    </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1556</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1557</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1558</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1559</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="A7" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>1561</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>1562</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>1563</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>1564</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>1566</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>1567</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>1568</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>1569</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>1570</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>1573</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>1574</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>1772</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>1575</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>1577</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>1578</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>1579</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>1580</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>1581</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>1583</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>1584</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>1585</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>1586</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>1589</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>1590</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>1591</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>1592</v>
+      </c>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>1594</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>1595</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>1596</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>1773</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>1597</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>1774</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>1775</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>1759</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>1776</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9" t="s">
+        <v>1601</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>1603</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>1604</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>1605</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>1606</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>1609</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>1610</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>1611</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>1612</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>1615</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>1616</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>1617</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>1618</v>
+      </c>
+      <c r="G18" s="9" t="s">
         <v>1464</v>
       </c>
-      <c r="G7" t="s">
-        <v>1560</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>162</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1367</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1335</v>
-      </c>
-      <c r="F8" t="s">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>1620</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>1621</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>1622</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>1528</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>1625</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>1626</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>1628</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>1629</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>1630</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>1631</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>1632</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>1635</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>1636</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>1637</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>1638</v>
+      </c>
+      <c r="G22" s="9" t="s">
         <v>1464</v>
       </c>
-      <c r="G8" t="s">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>275</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1561</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1562</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1563</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1564</v>
-      </c>
-      <c r="F9" t="s">
-        <v>1565</v>
-      </c>
-      <c r="G9" t="s">
-        <v>1566</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>1343</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1567</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1568</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1569</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1570</v>
-      </c>
-      <c r="F10" t="s">
-        <v>1571</v>
-      </c>
-      <c r="G10" t="s">
-        <v>1572</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>1351</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1573</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1574</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1575</v>
-      </c>
-      <c r="F11" t="s">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>1639</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>1640</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>1778</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>1641</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>1642</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>1644</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>1645</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>1779</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>1646</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>1647</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>1649</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>1650</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>1651</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>1652</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>1653</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>1782</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>1655</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>1783</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>1826</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>1784</v>
+      </c>
+      <c r="G26" s="9" t="s">
         <v>1576</v>
       </c>
-      <c r="G11" t="s">
-        <v>1577</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>1359</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1579</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1580</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1581</v>
-      </c>
-      <c r="F12" t="s">
-        <v>1582</v>
-      </c>
-      <c r="G12" t="s">
-        <v>1577</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>1366</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1583</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1584</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1585</v>
-      </c>
-      <c r="E13" t="s">
-        <v>1586</v>
-      </c>
-      <c r="F13" t="s">
-        <v>1587</v>
-      </c>
-      <c r="G13" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>1374</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1589</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1590</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1591</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1592</v>
-      </c>
-      <c r="F14" t="s">
-        <v>1593</v>
-      </c>
-      <c r="G14" t="s">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>1382</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1594</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1595</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1596</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1597</v>
-      </c>
-      <c r="F15" t="s">
-        <v>1464</v>
-      </c>
-      <c r="G15" t="s">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>1387</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1598</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1599</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>217</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1601</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1760</v>
-      </c>
-      <c r="F19" t="s">
-        <v>1602</v>
-      </c>
-      <c r="G19" t="s">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>1400</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1603</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1604</v>
-      </c>
-      <c r="D20" t="s">
-        <v>1605</v>
-      </c>
-      <c r="E20" t="s">
-        <v>1606</v>
-      </c>
-      <c r="F20" t="s">
-        <v>1607</v>
-      </c>
-      <c r="G20" t="s">
-        <v>1608</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>1406</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1609</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1610</v>
-      </c>
-      <c r="D21" t="s">
-        <v>1611</v>
-      </c>
-      <c r="E21" t="s">
-        <v>1612</v>
-      </c>
-      <c r="F21" t="s">
-        <v>1613</v>
-      </c>
-      <c r="G21" t="s">
-        <v>1614</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>1411</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1615</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1616</v>
-      </c>
-      <c r="D22" t="s">
-        <v>1617</v>
-      </c>
-      <c r="E22" t="s">
-        <v>1618</v>
-      </c>
-      <c r="F22" t="s">
-        <v>1619</v>
-      </c>
-      <c r="G22" t="s">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>1417</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1620</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1621</v>
-      </c>
-      <c r="D23" t="s">
-        <v>1622</v>
-      </c>
-      <c r="E23" t="s">
-        <v>1623</v>
-      </c>
-      <c r="F23" t="s">
-        <v>1528</v>
-      </c>
-      <c r="G23" t="s">
-        <v>1577</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>1425</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1624</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1625</v>
-      </c>
-      <c r="D24" t="s">
-        <v>1761</v>
-      </c>
-      <c r="E24" t="s">
-        <v>1626</v>
-      </c>
-      <c r="F24" t="s">
-        <v>1627</v>
-      </c>
-      <c r="G24" t="s">
-        <v>1628</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>1433</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1629</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1630</v>
-      </c>
-      <c r="D25" t="s">
-        <v>1631</v>
-      </c>
-      <c r="E25" t="s">
-        <v>1632</v>
-      </c>
-      <c r="F25" t="s">
-        <v>1633</v>
-      </c>
-      <c r="G25" t="s">
-        <v>1634</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>644</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1635</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1636</v>
-      </c>
-      <c r="D26" t="s">
-        <v>1637</v>
-      </c>
-      <c r="E26" t="s">
-        <v>1638</v>
-      </c>
-      <c r="F26" t="s">
-        <v>1639</v>
-      </c>
-      <c r="G26" t="s">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>1445</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1640</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1641</v>
-      </c>
-      <c r="D27" t="s">
-        <v>1762</v>
-      </c>
-      <c r="E27" t="s">
-        <v>1642</v>
-      </c>
-      <c r="F27" t="s">
+    </row>
+    <row r="27" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>1842</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>1662</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>1663</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>1843</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="9" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>1789</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>1841</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>1786</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>1827</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>1787</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="9" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>1792</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>1790</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>1676</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>1677</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>1775</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>1793</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>1794</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>1791</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>1828</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>1822</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="9" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>1795</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>1839</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>1796</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>1686</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>1840</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>1800</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>1798</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>1799</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>1691</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>1692</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>1802</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>1696</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>1697</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>1824</v>
+      </c>
+      <c r="G33" s="3" t="s">
         <v>1643</v>
       </c>
-      <c r="G27" t="s">
-        <v>1644</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>1449</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1645</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1646</v>
-      </c>
-      <c r="D28">
-        <v>35312409200</v>
-      </c>
-      <c r="E28" t="s">
-        <v>1647</v>
-      </c>
-      <c r="F28" t="s">
-        <v>1648</v>
-      </c>
-      <c r="G28" t="s">
-        <v>1649</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>1455</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1650</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1651</v>
-      </c>
-      <c r="D29" t="s">
-        <v>1652</v>
-      </c>
-      <c r="E29" t="s">
-        <v>1653</v>
-      </c>
-      <c r="F29" t="s">
-        <v>1654</v>
-      </c>
-      <c r="G29" t="s">
-        <v>1464</v>
-      </c>
+    </row>
+    <row r="34" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>1803</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>1809</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>1836</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>1837</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>1838</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>1810</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>1705</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>1819</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>1834</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>1805</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>1811</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>1814</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>1820</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>1509</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>1830</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>1815</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>1821</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>1823</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>1806</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>1812</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>1816</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>1717</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>1833</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>1817</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>1723</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>1825</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>1808</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>1813</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>1818</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>1727</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>1831</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{80D65642-8247-435C-8FA5-C2852F7001C6}"/>
+    <hyperlink ref="B26" r:id="rId2" xr:uid="{8D9520FF-5FD4-41E7-B3C1-8A16B2F4664D}"/>
+    <hyperlink ref="B27" r:id="rId3" xr:uid="{2C6EE108-8CAD-4000-8950-DE2C7234D6C1}"/>
+    <hyperlink ref="B28" r:id="rId4" xr:uid="{C8A64F29-8893-42BD-9492-BC4B2245ABCB}"/>
+    <hyperlink ref="B29" r:id="rId5" xr:uid="{F4A3675E-C30A-4533-970F-7EDF6C0B85AA}"/>
+    <hyperlink ref="B30" r:id="rId6" xr:uid="{A85568F5-4AF5-429B-B7DA-F8417B7CD3BC}"/>
+    <hyperlink ref="B31" r:id="rId7" xr:uid="{29E6F8E1-8F24-4E48-9A7C-DF65267D8EC8}"/>
+    <hyperlink ref="B32" r:id="rId8" xr:uid="{DC20100E-8AC0-4944-8E05-1A4FFFFD4C4B}"/>
+    <hyperlink ref="B33" r:id="rId9" xr:uid="{2844E2AD-01DE-4361-BD0D-6320D4641632}"/>
+    <hyperlink ref="B34" r:id="rId10" xr:uid="{52A7A2FB-90CF-4C6C-8C11-9A51E173B7D5}"/>
+    <hyperlink ref="B35" r:id="rId11" xr:uid="{A3B61300-E0EA-433F-A719-91099CEACBD0}"/>
+    <hyperlink ref="B36" r:id="rId12" xr:uid="{4EAC3741-1E81-4BD9-97E2-0C4FAB5DE689}"/>
+    <hyperlink ref="B37" r:id="rId13" xr:uid="{9F251D2F-9AF9-405D-BB45-4B11BFE92C5C}"/>
+    <hyperlink ref="B38" r:id="rId14" xr:uid="{68551AF3-64FA-4605-B437-BB1D71E955AD}"/>
+    <hyperlink ref="B39" r:id="rId15" xr:uid="{214AD951-EF08-4A4D-9022-D1F78EF913D9}"/>
+    <hyperlink ref="B40" r:id="rId16" xr:uid="{1A5413A2-9676-4949-A28D-C89F186D8CAD}"/>
+    <hyperlink ref="E26" r:id="rId17" xr:uid="{F9204EFB-4471-468B-B1B9-0EBC42904F02}"/>
+    <hyperlink ref="E27" r:id="rId18" xr:uid="{1F12D573-E26F-4814-AE11-877463EBCABA}"/>
+    <hyperlink ref="E28" r:id="rId19" xr:uid="{8E298D46-68FE-42DB-B449-AD0B0692BC90}"/>
+    <hyperlink ref="E29" r:id="rId20" xr:uid="{7C746EAB-591E-46E0-A31F-ADF881623279}"/>
+    <hyperlink ref="E30" r:id="rId21" xr:uid="{19344CEA-298C-41BD-BCB8-396DDAFDA867}"/>
+    <hyperlink ref="E31" r:id="rId22" xr:uid="{007F6435-152E-45CD-BC39-F0F1B3D868E3}"/>
+    <hyperlink ref="E32" r:id="rId23" xr:uid="{FBB53F9F-102A-4B52-BF9F-92B71148CFA4}"/>
+    <hyperlink ref="E33" r:id="rId24" xr:uid="{F998A3DF-6860-41F0-9EA9-94AEB735B13A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/olympics_all_years.xlsx
+++ b/olympics_all_years.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Даша\olympic-kz-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C2AD7C-15CD-42CB-9FE9-4268A54BEA34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6209AF-0AC2-4777-A943-43F28F21D4CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7320" uniqueCount="1857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7338" uniqueCount="1871">
   <si>
     <t>Год</t>
   </si>
@@ -5634,6 +5634,48 @@
   </si>
   <si>
     <t>Лория Давид Григорьевич</t>
+  </si>
+  <si>
+    <t>Медали</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Column10 </t>
+  </si>
+  <si>
+    <t>1 Серебро</t>
+  </si>
+  <si>
+    <t>1 Золото, 5 Серебро, 10 Бронза</t>
+  </si>
+  <si>
+    <t>1 Золото, 1 Серебро</t>
+  </si>
+  <si>
+    <t>1 Золото</t>
+  </si>
+  <si>
+    <t>2 Бронза</t>
+  </si>
+  <si>
+    <t>1 Золото, 2 Серебро, 2 Бронза</t>
+  </si>
+  <si>
+    <t>1 Бронза</t>
+  </si>
+  <si>
+    <t>2 Золото, 1 Серебро, 2 Бронза</t>
+  </si>
+  <si>
+    <t>7 Золото, 6  Серебро, 11 Бронза</t>
+  </si>
+  <si>
+    <t>1 Золото, 4  Серебро, 6 Бронза</t>
+  </si>
+  <si>
+    <t>1  Золото, 2  Серебро, 3 Бронза</t>
+  </si>
+  <si>
+    <t>2 Серебро, 2 Бронза</t>
   </si>
 </sst>
 </file>
@@ -44245,10 +44287,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I118"/>
+  <dimension ref="A1:J118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="73" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="H20" zoomScale="73" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -44262,9 +44304,10 @@
     <col min="7" max="7" width="39.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="37.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="80.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -44292,8 +44335,11 @@
       <c r="I1" t="s">
         <v>1304</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1305</v>
       </c>
@@ -44321,8 +44367,11 @@
       <c r="I2" t="s">
         <v>1313</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1314</v>
       </c>
@@ -44348,7 +44397,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1320</v>
       </c>
@@ -44374,7 +44423,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -44396,8 +44445,11 @@
       <c r="I5" t="s">
         <v>1331</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="J5" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>162</v>
       </c>
@@ -44425,8 +44477,11 @@
       <c r="I6" t="s">
         <v>1338</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="J6" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>275</v>
       </c>
@@ -44448,8 +44503,11 @@
       <c r="I7" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1341</v>
       </c>
@@ -44474,8 +44532,11 @@
       <c r="I8" t="s">
         <v>1348</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="J8" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1349</v>
       </c>
@@ -44503,8 +44564,11 @@
       <c r="I9" t="s">
         <v>1356</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J9" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1357</v>
       </c>
@@ -44530,7 +44594,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1363</v>
       </c>
@@ -44556,7 +44620,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1370</v>
       </c>
@@ -44581,8 +44645,11 @@
       <c r="I12" t="s">
         <v>1377</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J12" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1378</v>
       </c>
@@ -44608,7 +44675,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1383</v>
       </c>
@@ -44634,7 +44701,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>217</v>
       </c>
@@ -44662,8 +44729,11 @@
       <c r="I15" t="s">
         <v>1395</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J15" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>1396</v>
       </c>
@@ -44682,8 +44752,11 @@
       <c r="I16" t="s">
         <v>1401</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>1402</v>
       </c>
@@ -44703,7 +44776,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>1407</v>
       </c>
@@ -44726,7 +44799,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>1413</v>
       </c>
@@ -44754,8 +44827,11 @@
       <c r="I19" t="s">
         <v>1420</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="J19" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1421</v>
       </c>
@@ -44783,8 +44859,11 @@
       <c r="I20" t="s">
         <v>1428</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J20" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>1429</v>
       </c>
@@ -44812,8 +44891,11 @@
       <c r="I21" t="s">
         <v>1435</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J21" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>644</v>
       </c>
@@ -44842,7 +44924,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>1441</v>
       </c>
@@ -44865,7 +44947,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>1445</v>
       </c>
@@ -44888,7 +44970,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>1451</v>
       </c>
@@ -44911,7 +44993,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1456</v>
       </c>
@@ -44934,7 +45016,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>233</v>
       </c>
@@ -44956,8 +45038,11 @@
       <c r="I27" t="s">
         <v>1749</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J27" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>1465</v>
       </c>
@@ -44980,7 +45065,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>1472</v>
       </c>
@@ -45000,7 +45085,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>75</v>
       </c>
@@ -45023,7 +45108,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>1481</v>
       </c>
@@ -45048,8 +45133,11 @@
       <c r="I31" t="s">
         <v>1487</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J31" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>1488</v>
       </c>
@@ -45074,8 +45162,11 @@
       <c r="I32" t="s">
         <v>1493</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J32" t="s">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>785</v>
       </c>
@@ -45101,7 +45192,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>417</v>
       </c>
@@ -45127,7 +45218,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>1506</v>
       </c>
@@ -45152,8 +45243,11 @@
       <c r="I35" t="s">
         <v>1513</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J35" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>214</v>
       </c>
@@ -45179,7 +45273,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>313</v>
       </c>
@@ -45201,8 +45295,11 @@
       <c r="I37" t="s">
         <v>1746</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J37" t="s">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>1525</v>
       </c>
@@ -45228,7 +45325,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>1530</v>
       </c>
@@ -45251,7 +45348,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>1535</v>
       </c>
